--- a/cmake-build-debug/pacjeci.xlsx
+++ b/cmake-build-debug/pacjeci.xlsx
@@ -36,6 +36,12 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="1">
   <si>
     <t>//</t>
+  </si>
+  <si>
+    <t>XD</t>
+  </si>
+  <si>
+    <t>12332132132</t>
   </si>
 </sst>
 </file>
@@ -412,6 +418,20 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/cmake-build-debug/pacjeci.xlsx
+++ b/cmake-build-debug/pacjeci.xlsx
@@ -42,6 +42,30 @@
   </si>
   <si>
     <t>12332132132</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Testowo</t>
+  </si>
+  <si>
+    <t>03222222222</t>
+  </si>
+  <si>
+    <t>test@XD.pl</t>
+  </si>
+  <si>
+    <t>teststs322323</t>
+  </si>
+  <si>
+    <t>312123132</t>
+  </si>
+  <si>
+    <t>32132312321</t>
+  </si>
+  <si>
+    <t>321231312</t>
   </si>
 </sst>
 </file>
@@ -432,6 +456,34 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/cmake-build-debug/pacjeci.xlsx
+++ b/cmake-build-debug/pacjeci.xlsx
@@ -66,6 +66,30 @@
   </si>
   <si>
     <t>321231312</t>
+  </si>
+  <si>
+    <t>Wiktor</t>
+  </si>
+  <si>
+    <t>Kow</t>
+  </si>
+  <si>
+    <t>22222222222</t>
+  </si>
+  <si>
+    <t>wiktor.k.2002@icloud.com</t>
+  </si>
+  <si>
+    <t>Mati</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>12324324234</t>
+  </si>
+  <si>
+    <t>mati.elo</t>
   </si>
 </sst>
 </file>
@@ -484,6 +508,34 @@
         <v>10</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/cmake-build-debug/pacjeci.xlsx
+++ b/cmake-build-debug/pacjeci.xlsx
@@ -90,6 +90,18 @@
   </si>
   <si>
     <t>mati.elo</t>
+  </si>
+  <si>
+    <t>Mateusz</t>
+  </si>
+  <si>
+    <t>Lugowski</t>
+  </si>
+  <si>
+    <t>11111111111</t>
+  </si>
+  <si>
+    <t>lugowski.mateusz.02@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -536,6 +548,20 @@
         <v>18</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/cmake-build-debug/pacjeci.xlsx
+++ b/cmake-build-debug/pacjeci.xlsx
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t>lugowski.mateusz.02@gmail.com</t>
+  </si>
+  <si>
+    <t>10000000000</t>
   </si>
 </sst>
 </file>
@@ -562,6 +565,20 @@
         <v>22</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/cmake-build-debug/pacjeci.xlsx
+++ b/cmake-build-debug/pacjeci.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wikto\CLionProjects\kalendarz\cmake-build-debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projekt-IO\cmake-build-debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A295430D-27FA-4F28-B864-C6CB9613401E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3667074F-6ECA-4C42-963C-0C518E30511B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14976" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
+    <workbookView xWindow="2424" yWindow="1368" windowWidth="17280" windowHeight="8964" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,75 +36,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="1">
   <si>
     <t>//</t>
-  </si>
-  <si>
-    <t>XD</t>
-  </si>
-  <si>
-    <t>12332132132</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>Testowo</t>
-  </si>
-  <si>
-    <t>03222222222</t>
-  </si>
-  <si>
-    <t>test@XD.pl</t>
-  </si>
-  <si>
-    <t>teststs322323</t>
-  </si>
-  <si>
-    <t>312123132</t>
-  </si>
-  <si>
-    <t>32132312321</t>
-  </si>
-  <si>
-    <t>321231312</t>
-  </si>
-  <si>
-    <t>Wiktor</t>
-  </si>
-  <si>
-    <t>Kow</t>
-  </si>
-  <si>
-    <t>22222222222</t>
-  </si>
-  <si>
-    <t>wiktor.k.2002@icloud.com</t>
-  </si>
-  <si>
-    <t>Mati</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>12324324234</t>
-  </si>
-  <si>
-    <t>mati.elo</t>
-  </si>
-  <si>
-    <t>Mateusz</t>
-  </si>
-  <si>
-    <t>Lugowski</t>
-  </si>
-  <si>
-    <t>11111111111</t>
-  </si>
-  <si>
-    <t>lugowski.mateusz.02@gmail.com</t>
-  </si>
-  <si>
-    <t>10000000000</t>
   </si>
 </sst>
 </file>
@@ -448,7 +379,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -459,7 +390,7 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="A2" sqref="A2:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -481,104 +412,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
